--- a/outputs-HGR-r202-archive/g__Cutibacterium_train.xlsx
+++ b/outputs-HGR-r202-archive/g__Cutibacterium_train.xlsx
@@ -502,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,28 +561,28 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_1_7.fasta</t>
+          <t>label_20298_3_1_1.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>s__Cutibacterium acnes</t>
+          <t>s__Cutibacterium avidum</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_1_1.fasta</t>
+          <t>label_20298_3_1_3.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -603,80 +603,80 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_1_3.fasta</t>
+          <t>label_20298_3_1_2.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.5038565969751223</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.4961434030248776</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.5038565969751223</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>s__Cutibacterium avidum</t>
+          <t>s__Cutibacterium acnes</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_1_2.fasta</t>
+          <t>label_20298_3_1_6.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5038565969751223</v>
+        <v>0.2303367832212878</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4961434030248776</v>
+        <v>0.7696632167787122</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5038565969751223</v>
+        <v>0.7696632167787122</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>s__Cutibacterium acnes</t>
+          <t>s__Cutibacterium avidum</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_1_6.fasta</t>
+          <t>label_20298_3_1_0.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2303367832212878</v>
+        <v>0.8582653194681913</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7696632167787122</v>
+        <v>0.1417346805318087</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7696632167787122</v>
+        <v>0.8582653194681913</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>s__Cutibacterium avidum</t>
+          <t>s__Cutibacterium acnes</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_1_0.fasta</t>
+          <t>label_20298_3_1_5.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8582653194681913</v>
+        <v>0.8586497270969359</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1417346805318087</v>
+        <v>0.1413502729030641</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8582653194681913</v>
+        <v>0.8586497270969359</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -687,40 +687,19 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_1_5.fasta</t>
+          <t>label_20298_3_1_4.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8586497270969359</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1413502729030641</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8586497270969359</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
-        <is>
-          <t>s__Cutibacterium acnes</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_3_1_4.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
         <is>
           <t>s__Cutibacterium acnes</t>
         </is>
@@ -737,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -796,7 +775,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000413335_0.fasta</t>
+          <t>label_GCF_000413335_1.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -809,27 +788,6 @@
         <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>s__Cutibacterium acnes</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000413335_1.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>s__Cutibacterium acnes</t>
         </is>
